--- a/rendeskartyadatok.xlsx
+++ b/rendeskartyadatok.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tantárgyak\5. félév\Project_Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A47ECC1-249F-4D55-BDE9-A865C5F02085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F528ED-8749-4FE1-930E-3DDF396AB243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6A1AAF11-F359-4514-A23C-5D8853FF12ED}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{6A1AAF11-F359-4514-A23C-5D8853FF12ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -141,6 +141,54 @@
   </si>
   <si>
     <t>Aristolochia clematitis</t>
+  </si>
+  <si>
+    <t>Szőlőskertekben, gyümölcsösökben, folyóvizek melletti, talajon, vasúti töltések mentén található. Évelő. Drog: a föld feletti rész. Gyógyszeripari alapanyag</t>
+  </si>
+  <si>
+    <t>Fehér árvacsalán</t>
+  </si>
+  <si>
+    <t>lamium album</t>
+  </si>
+  <si>
+    <t>Erdők szélén, kerítések mentén gyakori</t>
+  </si>
+  <si>
+    <t>Fehér fagyöngy</t>
+  </si>
+  <si>
+    <t>Viscum album</t>
+  </si>
+  <si>
+    <t>Erős hatású Viscotoxin, kávésav származékok, flavonoidok, biogén aminok, lúgos kémhatású fehérjék</t>
+  </si>
+  <si>
+    <t>Fehér mályva</t>
+  </si>
+  <si>
+    <t>althea officinalis</t>
+  </si>
+  <si>
+    <t>Hazánkban igen elterjedt évelő növény, nádasokban, mocsaras területeken, szikes réteken, ártéri legelőkön sokfelé megtalálható, de termesztik is.</t>
+  </si>
+  <si>
+    <t>Fekete nadálytő</t>
+  </si>
+  <si>
+    <t>Symphytum officinale</t>
+  </si>
+  <si>
+    <t>Hazánkban ártéri társulásokban, magas vízállású szántóföldeken, agyagos talajon, árkokban, folyók mentén gyakori. Rövid gyökértörzse húsos gyökérben folytatódik, melynek vastagsága eléri a 2,5 cm-t, felülete fekete. Drog: gyökér</t>
+  </si>
+  <si>
+    <t>Feketeribizli</t>
+  </si>
+  <si>
+    <t>Ribes nigrum</t>
+  </si>
+  <si>
+    <t>Hazánkban szórványosan előforduló védett növény.</t>
   </si>
 </sst>
 </file>
@@ -495,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA263A2-4D6A-4AB5-B124-1241AC31E687}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,30 +739,93 @@
       <c r="C11" t="s">
         <v>34</v>
       </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
